--- a/biology/Botanique/Crotalaria_sagittalis/Crotalaria_sagittalis.xlsx
+++ b/biology/Botanique/Crotalaria_sagittalis/Crotalaria_sagittalis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crotalaria sagittalis, la crotalaire sagittée[2], est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire du continent américain.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crotalaria sagittalis, la crotalaire sagittée, est une espèce de plantes dicotylédones de la famille des Fabaceae, sous-famille des Faboideae, originaire du continent américain.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante herbacée annuelle, à port dressé, aux tiges poilues pouvant atteindre 10 à 40 cm de haut. Les feuilles, alternes, sessiles, sont lancéolées à linéaires. Les fleurs ont un calice vert pâle et  une corolle jaune pâle de type papilionacé. Les fruits caractéristiques sont des gousses pendantes très renflées[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante herbacée annuelle, à port dressé, aux tiges poilues pouvant atteindre 10 à 40 cm de haut. Les feuilles, alternes, sessiles, sont lancéolées à linéaires. Les fleurs ont un calice vert pâle et  une corolle jaune pâle de type papilionacé. Les fruits caractéristiques sont des gousses pendantes très renflées.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique « Crotalaria », dérive du terme latin crotalum, du grec κρόταλον (krótalon), « castagnette, grelot », en référence au bruit provoqué par les graines qui s'entrechoquent dans les gousses mûres lorsqu'on les secoue[4].
-L'épithète spécifique, « sagittalis », est un adjectif de latin botanique signifiant « comme une flèche »[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique « Crotalaria », dérive du terme latin crotalum, du grec κρόταλον (krótalon), « castagnette, grelot », en référence au bruit provoqué par les graines qui s'entrechoquent dans les gousses mûres lorsqu'on les secoue.
+L'épithète spécifique, « sagittalis », est un adjectif de latin botanique signifiant « comme une flèche ».
 </t>
         </is>
       </c>
@@ -576,8 +592,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon The Plant List            (19 août 2019)[1] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (19 août 2019) :
 Anonymos sagittalis Walter
 Crotalaria belizensis Lundell
 Crotalaria fruticosa Mill.
@@ -588,8 +609,43 @@
 Crotalaria sagittalis var. fruticosa (P. Mill.) Fawcett &amp; Rendle
 Crotalaria sagittalis var. oblonga Michx.
 Crotalaria tuerckheimii H. Senn
-Liste des variétés
-Selon Tropicos                                           (19 août 2019)[6] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Crotalaria_sagittalis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Crotalaria_sagittalis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (19 août 2019) (Attention liste brute contenant possiblement des synonymes) :
 Crotalaria sagittalis var. blumeriana H. Senn
 Crotalaria sagittalis var. espadilla (Kunth) Kuntze
 Crotalaria sagittalis var. fruticosa (Mill.) Fawc. &amp; Rendle
